--- a/fairfield_parking.xlsx
+++ b/fairfield_parking.xlsx
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45981.52439818287</v>
+        <v>45992.77992957176</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45981.52441924022</v>
+        <v>45992.77995545662</v>
       </c>
     </row>
   </sheetData>
